--- a/contratos/contratos-5-2020.xlsx
+++ b/contratos/contratos-5-2020.xlsx
@@ -754,7 +754,7 @@
     <t>JOANNAS ROBERTO ABEL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -880,7 +880,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>SPIROPULO ALEXIS YAMIL</t>
@@ -907,7 +907,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -931,7 +931,7 @@
     <t>ROSARIO MAQUINAS VIALES S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOSONE DANIEL ENRIQUE</t>
@@ -1339,520 +1339,520 @@
     <t>121</t>
   </si>
   <si>
-    <t>13.948,00</t>
-  </si>
-  <si>
-    <t>1.480.800,00</t>
-  </si>
-  <si>
-    <t>880.704,00</t>
-  </si>
-  <si>
-    <t>2.710,95</t>
-  </si>
-  <si>
-    <t>496.119,46</t>
-  </si>
-  <si>
-    <t>166.760,00</t>
-  </si>
-  <si>
-    <t>343.335,24</t>
-  </si>
-  <si>
-    <t>985.633,00</t>
-  </si>
-  <si>
-    <t>304.728,70</t>
-  </si>
-  <si>
-    <t>56.005,00</t>
-  </si>
-  <si>
-    <t>1.020.566,00</t>
-  </si>
-  <si>
-    <t>277.843,74</t>
-  </si>
-  <si>
-    <t>168.393,39</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>14.940,00</t>
-  </si>
-  <si>
-    <t>5.060,00</t>
-  </si>
-  <si>
-    <t>79.457,70</t>
-  </si>
-  <si>
-    <t>75,98</t>
-  </si>
-  <si>
-    <t>2.430.329,73</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>318.628,21</t>
-  </si>
-  <si>
-    <t>40.998,00</t>
-  </si>
-  <si>
-    <t>40.784,12</t>
-  </si>
-  <si>
-    <t>104.470,00</t>
-  </si>
-  <si>
-    <t>15.493,00</t>
-  </si>
-  <si>
-    <t>288.852,20</t>
-  </si>
-  <si>
-    <t>3.663,49</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>10.135,77</t>
-  </si>
-  <si>
-    <t>2.835,30</t>
-  </si>
-  <si>
-    <t>8.899,40</t>
-  </si>
-  <si>
-    <t>1.717,32</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>9.784,78</t>
-  </si>
-  <si>
-    <t>12.819,94</t>
-  </si>
-  <si>
-    <t>21.881,74</t>
-  </si>
-  <si>
-    <t>6.826,00</t>
-  </si>
-  <si>
-    <t>2.226,10</t>
-  </si>
-  <si>
-    <t>1.172,00</t>
-  </si>
-  <si>
-    <t>20.560,00</t>
-  </si>
-  <si>
-    <t>1.395,00</t>
-  </si>
-  <si>
-    <t>4.697,00</t>
-  </si>
-  <si>
-    <t>5.742,65</t>
-  </si>
-  <si>
-    <t>1.493,86</t>
-  </si>
-  <si>
-    <t>1.935,98</t>
-  </si>
-  <si>
-    <t>2.386,00</t>
-  </si>
-  <si>
-    <t>244,40</t>
-  </si>
-  <si>
-    <t>11.048,00</t>
-  </si>
-  <si>
-    <t>13.100,00</t>
-  </si>
-  <si>
-    <t>14.556,47</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>1.935,52</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>194.567,00</t>
-  </si>
-  <si>
-    <t>165.180,00</t>
-  </si>
-  <si>
-    <t>1.240,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>7.980,00</t>
-  </si>
-  <si>
-    <t>11.610,00</t>
-  </si>
-  <si>
-    <t>3.910,00</t>
-  </si>
-  <si>
-    <t>206.456,25</t>
-  </si>
-  <si>
-    <t>10.920,00</t>
-  </si>
-  <si>
-    <t>15.960,42</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>60.380,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>206,50</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>34.275,00</t>
-  </si>
-  <si>
-    <t>71.632,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>9.660,00</t>
-  </si>
-  <si>
-    <t>1.030,00</t>
-  </si>
-  <si>
-    <t>6.826,56</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>6.673,00</t>
-  </si>
-  <si>
-    <t>73.936,81</t>
-  </si>
-  <si>
-    <t>3.018,00</t>
-  </si>
-  <si>
-    <t>33.440,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>9.655,00</t>
-  </si>
-  <si>
-    <t>126,08</t>
-  </si>
-  <si>
-    <t>19.600,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>2.522,36</t>
-  </si>
-  <si>
-    <t>44.097,00</t>
-  </si>
-  <si>
-    <t>17.771,00</t>
-  </si>
-  <si>
-    <t>1.288,84</t>
-  </si>
-  <si>
-    <t>18.562.500,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>45.305,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>86.800,00</t>
-  </si>
-  <si>
-    <t>20.100,00</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>258.893,60</t>
-  </si>
-  <si>
-    <t>18.416,00</t>
-  </si>
-  <si>
-    <t>15.400,00</t>
-  </si>
-  <si>
-    <t>33.150,00</t>
-  </si>
-  <si>
-    <t>15.200,00</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>42.365,00</t>
-  </si>
-  <si>
-    <t>338,54</t>
-  </si>
-  <si>
-    <t>9.370,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>20.418,79</t>
-  </si>
-  <si>
-    <t>1.297,64</t>
-  </si>
-  <si>
-    <t>18.810,66</t>
-  </si>
-  <si>
-    <t>118.381,88</t>
-  </si>
-  <si>
-    <t>9.290,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>1.825,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>9.825,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.527.733,44</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>7.850,00</t>
-  </si>
-  <si>
-    <t>69.441,51</t>
-  </si>
-  <si>
-    <t>8.230.759,63</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>312.760,00</t>
-  </si>
-  <si>
-    <t>301.460,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>761.490,00</t>
-  </si>
-  <si>
-    <t>1.017.000,00</t>
-  </si>
-  <si>
-    <t>434.180,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>550.900,00</t>
-  </si>
-  <si>
-    <t>592.360,00</t>
-  </si>
-  <si>
-    <t>878.780,00</t>
-  </si>
-  <si>
-    <t>857.980,00</t>
-  </si>
-  <si>
-    <t>327.403,33</t>
-  </si>
-  <si>
-    <t>40.680,00</t>
-  </si>
-  <si>
-    <t>70.950,00</t>
-  </si>
-  <si>
-    <t>2.312,34</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>315.000,00</t>
-  </si>
-  <si>
-    <t>19.331,21</t>
-  </si>
-  <si>
-    <t>20.388,02</t>
-  </si>
-  <si>
-    <t>29.000,00</t>
-  </si>
-  <si>
-    <t>1.535,74</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>5.542,00</t>
-  </si>
-  <si>
-    <t>6.655,00</t>
-  </si>
-  <si>
-    <t>1.098.000,00</t>
-  </si>
-  <si>
-    <t>1.570.000,00</t>
-  </si>
-  <si>
-    <t>945.000,00</t>
+    <t>13948.00</t>
+  </si>
+  <si>
+    <t>1480800.00</t>
+  </si>
+  <si>
+    <t>880704.00</t>
+  </si>
+  <si>
+    <t>2710.95</t>
+  </si>
+  <si>
+    <t>496119.46</t>
+  </si>
+  <si>
+    <t>166760.00</t>
+  </si>
+  <si>
+    <t>343335.24</t>
+  </si>
+  <si>
+    <t>985633.00</t>
+  </si>
+  <si>
+    <t>304728.70</t>
+  </si>
+  <si>
+    <t>56005.00</t>
+  </si>
+  <si>
+    <t>1020566.00</t>
+  </si>
+  <si>
+    <t>277843.74</t>
+  </si>
+  <si>
+    <t>168393.39</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>14940.00</t>
+  </si>
+  <si>
+    <t>5060.00</t>
+  </si>
+  <si>
+    <t>79457.70</t>
+  </si>
+  <si>
+    <t>75.98</t>
+  </si>
+  <si>
+    <t>2430329.73</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>318628.21</t>
+  </si>
+  <si>
+    <t>40998.00</t>
+  </si>
+  <si>
+    <t>40784.12</t>
+  </si>
+  <si>
+    <t>104470.00</t>
+  </si>
+  <si>
+    <t>15493.00</t>
+  </si>
+  <si>
+    <t>288852.20</t>
+  </si>
+  <si>
+    <t>3663.49</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>10135.77</t>
+  </si>
+  <si>
+    <t>2835.30</t>
+  </si>
+  <si>
+    <t>8899.40</t>
+  </si>
+  <si>
+    <t>1717.32</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>9784.78</t>
+  </si>
+  <si>
+    <t>12819.94</t>
+  </si>
+  <si>
+    <t>21881.74</t>
+  </si>
+  <si>
+    <t>6826.00</t>
+  </si>
+  <si>
+    <t>2226.10</t>
+  </si>
+  <si>
+    <t>1172.00</t>
+  </si>
+  <si>
+    <t>20560.00</t>
+  </si>
+  <si>
+    <t>1395.00</t>
+  </si>
+  <si>
+    <t>4697.00</t>
+  </si>
+  <si>
+    <t>5742.65</t>
+  </si>
+  <si>
+    <t>1493.86</t>
+  </si>
+  <si>
+    <t>1935.98</t>
+  </si>
+  <si>
+    <t>2386.00</t>
+  </si>
+  <si>
+    <t>244.40</t>
+  </si>
+  <si>
+    <t>11048.00</t>
+  </si>
+  <si>
+    <t>13100.00</t>
+  </si>
+  <si>
+    <t>14556.47</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>1935.52</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>194567.00</t>
+  </si>
+  <si>
+    <t>165180.00</t>
+  </si>
+  <si>
+    <t>1240.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>7980.00</t>
+  </si>
+  <si>
+    <t>11610.00</t>
+  </si>
+  <si>
+    <t>3910.00</t>
+  </si>
+  <si>
+    <t>206456.25</t>
+  </si>
+  <si>
+    <t>10920.00</t>
+  </si>
+  <si>
+    <t>15960.42</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>60380.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>206.50</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>34275.00</t>
+  </si>
+  <si>
+    <t>71632.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>9660.00</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>6826.56</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>6673.00</t>
+  </si>
+  <si>
+    <t>73936.81</t>
+  </si>
+  <si>
+    <t>3018.00</t>
+  </si>
+  <si>
+    <t>33440.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>9655.00</t>
+  </si>
+  <si>
+    <t>126.08</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2522.36</t>
+  </si>
+  <si>
+    <t>44097.00</t>
+  </si>
+  <si>
+    <t>17771.00</t>
+  </si>
+  <si>
+    <t>1288.84</t>
+  </si>
+  <si>
+    <t>18562500.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>45305.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>86800.00</t>
+  </si>
+  <si>
+    <t>20100.00</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>258893.60</t>
+  </si>
+  <si>
+    <t>18416.00</t>
+  </si>
+  <si>
+    <t>15400.00</t>
+  </si>
+  <si>
+    <t>33150.00</t>
+  </si>
+  <si>
+    <t>15200.00</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>42365.00</t>
+  </si>
+  <si>
+    <t>338.54</t>
+  </si>
+  <si>
+    <t>9370.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>20418.79</t>
+  </si>
+  <si>
+    <t>1297.64</t>
+  </si>
+  <si>
+    <t>18810.66</t>
+  </si>
+  <si>
+    <t>118381.88</t>
+  </si>
+  <si>
+    <t>9290.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>1825.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>9825.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1527733.44</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>7850.00</t>
+  </si>
+  <si>
+    <t>69441.51</t>
+  </si>
+  <si>
+    <t>8230759.63</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>312760.00</t>
+  </si>
+  <si>
+    <t>301460.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>761490.00</t>
+  </si>
+  <si>
+    <t>1017000.00</t>
+  </si>
+  <si>
+    <t>434180.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>550900.00</t>
+  </si>
+  <si>
+    <t>592360.00</t>
+  </si>
+  <si>
+    <t>878780.00</t>
+  </si>
+  <si>
+    <t>857980.00</t>
+  </si>
+  <si>
+    <t>327403.33</t>
+  </si>
+  <si>
+    <t>40680.00</t>
+  </si>
+  <si>
+    <t>70950.00</t>
+  </si>
+  <si>
+    <t>2312.34</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>315000.00</t>
+  </si>
+  <si>
+    <t>19331.21</t>
+  </si>
+  <si>
+    <t>20388.02</t>
+  </si>
+  <si>
+    <t>29000.00</t>
+  </si>
+  <si>
+    <t>1535.74</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>5542.00</t>
+  </si>
+  <si>
+    <t>6655.00</t>
+  </si>
+  <si>
+    <t>1098000.00</t>
+  </si>
+  <si>
+    <t>1570000.00</t>
+  </si>
+  <si>
+    <t>945000.00</t>
   </si>
 </sst>
 </file>
